--- a/original-datasets/FS_01_DOWN_COLORS.xlsx
+++ b/original-datasets/FS_01_DOWN_COLORS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\COMPARACIONES ANOT Y ENRIQUECIMIENTO\COLORES\FS_01_DOWN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ulises Olivares\Dropbox\19. GitHub\Merge-Genomic-Data\original-datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1699,32 +1698,6 @@
   </si>
   <si>
     <t>regulation of metabolic process</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ribosome biogenesis </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>√</t>
-    </r>
   </si>
   <si>
     <t>ribonucleoprotein complex biogenesis  √</t>
@@ -2214,12 +2187,15 @@
   <si>
     <t>TR28722 RPL13A|c0_g1_i1, TR32785 RPL10A|c0_g1_i2, TR29708 RPL17|c0_g1_i1, TR3156 RPS40|c0_g1_i1, TR32273 RPL17B|c2_g1_i1, TR33319 RPS40|c2_g2_i1, TR35593 RPS3|c5_g3_i3, TR31283 RPL11|c0_g1_i1, TR31599|c2_g1_i1, TR35362 RPS15|c2_g4_i1, TR19124|c0_g1_i1, TR34651 RPS11|c2_g2_i5, TR43502|c0_g1_i1, TR40247 RPS3A|c0_g2_i1, TR27633|c0_g1_i1</t>
   </si>
+  <si>
+    <t>ribosome biogenesis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2246,21 +2222,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2349,8 +2310,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFCC00CC"/>
@@ -2632,11 +2621,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="51.7109375" customWidth="1"/>
   </cols>
@@ -2660,7 +2649,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2671,7 +2660,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2682,7 +2671,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2693,7 +2682,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2703,7 +2692,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2714,7 +2703,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2724,7 +2713,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2735,7 +2724,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2751,7 +2740,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2767,7 +2756,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.25">
@@ -2778,7 +2767,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2789,7 +2778,7 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2805,7 +2794,7 @@
         <v>28</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2816,7 +2805,7 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2832,7 +2821,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2843,7 +2832,7 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2854,7 +2843,7 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2865,7 +2854,7 @@
         <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2887,7 +2876,7 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2898,7 +2887,7 @@
         <v>46</v>
       </c>
       <c r="C28" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2906,10 +2895,10 @@
         <v>47</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>558</v>
+        <v>717</v>
       </c>
       <c r="C29" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2920,7 +2909,7 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2931,7 +2920,7 @@
         <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2942,7 +2931,7 @@
         <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2964,7 +2953,7 @@
         <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2975,7 +2964,7 @@
         <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2997,7 +2986,7 @@
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3008,7 +2997,7 @@
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3016,10 +3005,10 @@
         <v>68</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C39" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3030,7 +3019,7 @@
         <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3041,7 +3030,7 @@
         <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3052,7 +3041,7 @@
         <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3063,7 +3052,7 @@
         <v>76</v>
       </c>
       <c r="C43" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3074,7 +3063,7 @@
         <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3085,7 +3074,7 @@
         <v>80</v>
       </c>
       <c r="C45" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3093,10 +3082,10 @@
         <v>81</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C46" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3129,7 +3118,7 @@
         <v>87</v>
       </c>
       <c r="C49" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3140,7 +3129,7 @@
         <v>89</v>
       </c>
       <c r="C50" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -3151,12 +3140,12 @@
         <v>91</v>
       </c>
       <c r="C51" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3167,7 +3156,7 @@
         <v>93</v>
       </c>
       <c r="C53" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -3178,12 +3167,12 @@
         <v>95</v>
       </c>
       <c r="C54" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -3204,7 +3193,7 @@
         <v>99</v>
       </c>
       <c r="C58" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -3226,7 +3215,7 @@
         <v>104</v>
       </c>
       <c r="C60" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -3242,7 +3231,7 @@
         <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3253,12 +3242,12 @@
         <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3269,12 +3258,12 @@
         <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3285,7 +3274,7 @@
         <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3296,7 +3285,7 @@
         <v>115</v>
       </c>
       <c r="C68" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3312,7 +3301,7 @@
         <v>118</v>
       </c>
       <c r="C70" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3323,7 +3312,7 @@
         <v>120</v>
       </c>
       <c r="C71" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3334,7 +3323,7 @@
         <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3345,7 +3334,7 @@
         <v>124</v>
       </c>
       <c r="C73" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3356,7 +3345,7 @@
         <v>126</v>
       </c>
       <c r="C74" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3367,7 +3356,7 @@
         <v>128</v>
       </c>
       <c r="C75" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3378,12 +3367,12 @@
         <v>130</v>
       </c>
       <c r="C76" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3394,7 +3383,7 @@
         <v>132</v>
       </c>
       <c r="C78" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3405,7 +3394,7 @@
         <v>134</v>
       </c>
       <c r="C79" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3416,7 +3405,7 @@
         <v>136</v>
       </c>
       <c r="C80" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3427,7 +3416,7 @@
         <v>138</v>
       </c>
       <c r="C81" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3438,7 +3427,7 @@
         <v>140</v>
       </c>
       <c r="C82" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3449,7 +3438,7 @@
         <v>142</v>
       </c>
       <c r="C83" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3482,7 +3471,7 @@
         <v>150</v>
       </c>
       <c r="C86" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3504,7 +3493,7 @@
         <v>154</v>
       </c>
       <c r="C88" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3515,7 +3504,7 @@
         <v>156</v>
       </c>
       <c r="C89" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3531,7 +3520,7 @@
         <v>159</v>
       </c>
       <c r="C91" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3547,7 +3536,7 @@
         <v>162</v>
       </c>
       <c r="C93" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3558,7 +3547,7 @@
         <v>164</v>
       </c>
       <c r="C94" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3569,7 +3558,7 @@
         <v>166</v>
       </c>
       <c r="C95" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3585,7 +3574,7 @@
         <v>169</v>
       </c>
       <c r="C97" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3596,7 +3585,7 @@
         <v>171</v>
       </c>
       <c r="C98" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3607,7 +3596,7 @@
         <v>173</v>
       </c>
       <c r="C99" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3623,7 +3612,7 @@
         <v>176</v>
       </c>
       <c r="C101" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3634,7 +3623,7 @@
         <v>178</v>
       </c>
       <c r="C102" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3645,7 +3634,7 @@
         <v>180</v>
       </c>
       <c r="C103" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3656,7 +3645,7 @@
         <v>182</v>
       </c>
       <c r="C104" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3667,7 +3656,7 @@
         <v>184</v>
       </c>
       <c r="C105" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3678,7 +3667,7 @@
         <v>186</v>
       </c>
       <c r="C106" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3694,7 +3683,7 @@
         <v>189</v>
       </c>
       <c r="C108" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3716,7 +3705,7 @@
         <v>194</v>
       </c>
       <c r="C110" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3738,7 +3727,7 @@
         <v>199</v>
       </c>
       <c r="C112" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3749,7 +3738,7 @@
         <v>201</v>
       </c>
       <c r="C113" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3760,7 +3749,7 @@
         <v>203</v>
       </c>
       <c r="C114" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3771,7 +3760,7 @@
         <v>205</v>
       </c>
       <c r="C115" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3782,7 +3771,7 @@
         <v>207</v>
       </c>
       <c r="C116" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3815,7 +3804,7 @@
         <v>215</v>
       </c>
       <c r="C119" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3837,7 +3826,7 @@
         <v>219</v>
       </c>
       <c r="C121" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3848,7 +3837,7 @@
         <v>221</v>
       </c>
       <c r="C122" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -3859,7 +3848,7 @@
         <v>223</v>
       </c>
       <c r="C123" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3870,7 +3859,7 @@
         <v>225</v>
       </c>
       <c r="C124" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3881,7 +3870,7 @@
         <v>227</v>
       </c>
       <c r="C125" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3892,7 +3881,7 @@
         <v>229</v>
       </c>
       <c r="C126" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3907,7 +3896,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3918,7 +3907,7 @@
         <v>233</v>
       </c>
       <c r="C130" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3945,7 +3934,7 @@
         <v>238</v>
       </c>
       <c r="C133" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3956,7 +3945,7 @@
         <v>240</v>
       </c>
       <c r="C134" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3967,7 +3956,7 @@
         <v>242</v>
       </c>
       <c r="C135" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3978,7 +3967,7 @@
         <v>244</v>
       </c>
       <c r="C136" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -3989,7 +3978,7 @@
         <v>246</v>
       </c>
       <c r="C137" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -4004,7 +3993,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -4037,7 +4026,7 @@
         <v>255</v>
       </c>
       <c r="C143" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -4048,7 +4037,7 @@
         <v>257</v>
       </c>
       <c r="C144" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -4059,7 +4048,7 @@
         <v>259</v>
       </c>
       <c r="C145" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -4070,7 +4059,7 @@
         <v>261</v>
       </c>
       <c r="C146" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -4081,7 +4070,7 @@
         <v>263</v>
       </c>
       <c r="C147" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -4092,7 +4081,7 @@
         <v>265</v>
       </c>
       <c r="C148" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -4103,7 +4092,7 @@
         <v>267</v>
       </c>
       <c r="C149" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -4114,7 +4103,7 @@
         <v>269</v>
       </c>
       <c r="C150" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -4125,7 +4114,7 @@
         <v>271</v>
       </c>
       <c r="C151" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -4180,7 +4169,7 @@
         <v>282</v>
       </c>
       <c r="C156" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -4224,7 +4213,7 @@
         <v>290</v>
       </c>
       <c r="C160" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -4257,7 +4246,7 @@
         <v>296</v>
       </c>
       <c r="C163" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -4279,7 +4268,7 @@
         <v>301</v>
       </c>
       <c r="C165" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -4322,7 +4311,7 @@
         <v>310</v>
       </c>
       <c r="C170" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -4355,7 +4344,7 @@
         <v>317</v>
       </c>
       <c r="C173" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -4366,7 +4355,7 @@
         <v>319</v>
       </c>
       <c r="C174" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -4377,7 +4366,7 @@
         <v>321</v>
       </c>
       <c r="C175" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -4388,7 +4377,7 @@
         <v>323</v>
       </c>
       <c r="C176" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -4399,7 +4388,7 @@
         <v>325</v>
       </c>
       <c r="C177" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -4410,7 +4399,7 @@
         <v>327</v>
       </c>
       <c r="C178" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -4432,7 +4421,7 @@
         <v>332</v>
       </c>
       <c r="C180" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -4443,7 +4432,7 @@
         <v>334</v>
       </c>
       <c r="C181" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -4454,7 +4443,7 @@
         <v>336</v>
       </c>
       <c r="C182" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -4465,7 +4454,7 @@
         <v>338</v>
       </c>
       <c r="C183" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -4476,7 +4465,7 @@
         <v>340</v>
       </c>
       <c r="C184" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -4487,7 +4476,7 @@
         <v>342</v>
       </c>
       <c r="C185" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -4498,7 +4487,7 @@
         <v>344</v>
       </c>
       <c r="C186" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -4519,7 +4508,7 @@
         <v>348</v>
       </c>
       <c r="C189" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4541,7 +4530,7 @@
         <v>353</v>
       </c>
       <c r="C191" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -4552,7 +4541,7 @@
         <v>355</v>
       </c>
       <c r="C192" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -4563,7 +4552,7 @@
         <v>357</v>
       </c>
       <c r="C193" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -4585,7 +4574,7 @@
         <v>362</v>
       </c>
       <c r="C195" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -4607,7 +4596,7 @@
         <v>366</v>
       </c>
       <c r="C197" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -4629,7 +4618,7 @@
         <v>371</v>
       </c>
       <c r="C199" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -4640,7 +4629,7 @@
         <v>373</v>
       </c>
       <c r="C200" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -4651,7 +4640,7 @@
         <v>375</v>
       </c>
       <c r="C201" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -4662,7 +4651,7 @@
         <v>377</v>
       </c>
       <c r="C202" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -4673,7 +4662,7 @@
         <v>379</v>
       </c>
       <c r="C203" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -4684,7 +4673,7 @@
         <v>381</v>
       </c>
       <c r="C204" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -4695,7 +4684,7 @@
         <v>383</v>
       </c>
       <c r="C205" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -4706,7 +4695,7 @@
         <v>385</v>
       </c>
       <c r="C206" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -4717,7 +4706,7 @@
         <v>387</v>
       </c>
       <c r="C207" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -4728,7 +4717,7 @@
         <v>389</v>
       </c>
       <c r="C208" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -4750,7 +4739,7 @@
         <v>393</v>
       </c>
       <c r="C210" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -4772,7 +4761,7 @@
         <v>398</v>
       </c>
       <c r="C212" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -4794,7 +4783,7 @@
         <v>403</v>
       </c>
       <c r="C214" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -4805,7 +4794,7 @@
         <v>405</v>
       </c>
       <c r="C215" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -4827,7 +4816,7 @@
         <v>410</v>
       </c>
       <c r="C217" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -4838,7 +4827,7 @@
         <v>412</v>
       </c>
       <c r="C218" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -4849,7 +4838,7 @@
         <v>414</v>
       </c>
       <c r="C219" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -4915,7 +4904,7 @@
         <v>430</v>
       </c>
       <c r="C225" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -4926,7 +4915,7 @@
         <v>432</v>
       </c>
       <c r="C226" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -4937,7 +4926,7 @@
         <v>434</v>
       </c>
       <c r="C227" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -4959,7 +4948,7 @@
         <v>438</v>
       </c>
       <c r="C229" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -4970,7 +4959,7 @@
         <v>440</v>
       </c>
       <c r="C230" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -4992,7 +4981,7 @@
         <v>445</v>
       </c>
       <c r="C232" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -5003,7 +4992,7 @@
         <v>447</v>
       </c>
       <c r="C233" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -5014,7 +5003,7 @@
         <v>449</v>
       </c>
       <c r="C234" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -5036,7 +5025,7 @@
         <v>454</v>
       </c>
       <c r="C236" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -5047,7 +5036,7 @@
         <v>456</v>
       </c>
       <c r="C237" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -5058,7 +5047,7 @@
         <v>458</v>
       </c>
       <c r="C238" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -5069,7 +5058,7 @@
         <v>460</v>
       </c>
       <c r="C239" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -5091,7 +5080,7 @@
         <v>465</v>
       </c>
       <c r="C241" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -5102,7 +5091,7 @@
         <v>467</v>
       </c>
       <c r="C242" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -5113,7 +5102,7 @@
         <v>469</v>
       </c>
       <c r="C243" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -5124,7 +5113,7 @@
         <v>471</v>
       </c>
       <c r="C244" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -5135,7 +5124,7 @@
         <v>473</v>
       </c>
       <c r="C245" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -5146,7 +5135,7 @@
         <v>475</v>
       </c>
       <c r="C246" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -5157,7 +5146,7 @@
         <v>477</v>
       </c>
       <c r="C247" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -5179,7 +5168,7 @@
         <v>481</v>
       </c>
       <c r="C249" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -5190,7 +5179,7 @@
         <v>483</v>
       </c>
       <c r="C250" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -5201,7 +5190,7 @@
         <v>485</v>
       </c>
       <c r="C251" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -5234,7 +5223,7 @@
         <v>493</v>
       </c>
       <c r="C254" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -5245,7 +5234,7 @@
         <v>495</v>
       </c>
       <c r="C255" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -5278,7 +5267,7 @@
         <v>502</v>
       </c>
       <c r="C258" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -5322,7 +5311,7 @@
         <v>513</v>
       </c>
       <c r="C262" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -5333,7 +5322,7 @@
         <v>515</v>
       </c>
       <c r="C263" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -5344,7 +5333,7 @@
         <v>517</v>
       </c>
       <c r="C264" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -5355,7 +5344,7 @@
         <v>519</v>
       </c>
       <c r="C265" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -5366,7 +5355,7 @@
         <v>521</v>
       </c>
       <c r="C266" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -5377,7 +5366,7 @@
         <v>523</v>
       </c>
       <c r="C267" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -5388,7 +5377,7 @@
         <v>525</v>
       </c>
       <c r="C268" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -5399,7 +5388,7 @@
         <v>527</v>
       </c>
       <c r="C269" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -5421,7 +5410,7 @@
         <v>531</v>
       </c>
       <c r="C271" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -5432,7 +5421,7 @@
         <v>533</v>
       </c>
       <c r="C272" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -5443,7 +5432,7 @@
         <v>535</v>
       </c>
       <c r="C273" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -5454,7 +5443,7 @@
         <v>537</v>
       </c>
       <c r="C274" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -5542,7 +5531,7 @@
         <v>557</v>
       </c>
       <c r="C282" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
